--- a/FCT/registered_contractors.xlsx
+++ b/FCT/registered_contractors.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Documents\GitHub\knowledge-base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Documents\GitHub\knowledge-base\FCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55D9ED9-F107-487E-988A-60A7B3349F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0909DFDF-40B4-4E83-AF76-4CB4D5380D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1D4E7621-41A5-45D4-AA1B-F1E68A352389}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{1D4E7621-41A5-45D4-AA1B-F1E68A352389}"/>
   </bookViews>
   <sheets>
-    <sheet name="Updated 2025.09.24" sheetId="1" r:id="rId1"/>
+    <sheet name="Updated 2025.09.28" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Updated 2025.09.24'!$A$1:$D$181</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Updated 2025.09.28'!$A$1:$D$188</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="378">
   <si>
     <t>No.</t>
   </si>
@@ -1131,6 +1131,48 @@
   </si>
   <si>
     <t>NCS Pearson Inc</t>
+  </si>
+  <si>
+    <t>CRM AND CLOUD CONSULTING COMPANY LIMITED</t>
+  </si>
+  <si>
+    <t>GetYourGuide Tours &amp; Tickets GmbH</t>
+  </si>
+  <si>
+    <t>Mixpanel, Inc</t>
+  </si>
+  <si>
+    <t>INMOBI PTE. LTD.</t>
+  </si>
+  <si>
+    <t>WIX.COM LTD.</t>
+  </si>
+  <si>
+    <t>Butterfly Effect Pte. Ltd.</t>
+  </si>
+  <si>
+    <t>9000002162</t>
+  </si>
+  <si>
+    <t>9000002194</t>
+  </si>
+  <si>
+    <t>9000002148</t>
+  </si>
+  <si>
+    <t>9000002275</t>
+  </si>
+  <si>
+    <t>9000002268</t>
+  </si>
+  <si>
+    <t>9000002282</t>
+  </si>
+  <si>
+    <t>8951198958</t>
+  </si>
+  <si>
+    <t>Ng Bin Xi</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1204,6 +1246,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1308,8 +1359,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C244F439-D8DA-4ACC-A74C-C3C4B67D414B}" name="Reg_Contractor" displayName="Reg_Contractor" ref="A1:D181" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D181" xr:uid="{1E872CA2-D311-4882-8395-73C9135F00E5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C244F439-D8DA-4ACC-A74C-C3C4B67D414B}" name="Reg_Contractor" displayName="Reg_Contractor" ref="A1:D188" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D188" xr:uid="{1E872CA2-D311-4882-8395-73C9135F00E5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D181">
     <sortCondition descending="1" ref="A1:A181"/>
   </sortState>
@@ -1640,22 +1691,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E872CA2-D311-4882-8395-73C9135F00E5}">
-  <dimension ref="A1:D181"/>
+  <dimension ref="A1:D188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="D196" sqref="D196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4187,6 +4238,104 @@
       </c>
       <c r="D181" s="10">
         <v>45917.461342592593</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="4">
+        <v>181</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="D182" s="13">
+        <v>45926.657743055555</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="4">
+        <v>182</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="C183" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="D183" s="13">
+        <v>45926.657754629632</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="4">
+        <v>183</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="D184" s="13">
+        <v>45926.657812500001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="4">
+        <v>184</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="D185" s="13">
+        <v>45926.657824074071</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="4">
+        <v>185</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="D186" s="13">
+        <v>45926.657881944448</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="4">
+        <v>186</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C187" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="D187" s="13">
+        <v>45926.657881944448</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="4">
+        <v>187</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="D188" s="13">
+        <v>45926.657951388886</v>
       </c>
     </row>
   </sheetData>

--- a/FCT/registered_contractors.xlsx
+++ b/FCT/registered_contractors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Documents\GitHub\knowledge-base\FCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0909DFDF-40B4-4E83-AF76-4CB4D5380D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECE61E3-A8D7-42BD-9B5C-5E7D866154C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{1D4E7621-41A5-45D4-AA1B-F1E68A352389}"/>
   </bookViews>
@@ -44,15 +44,6 @@
     <t>No.</t>
   </si>
   <si>
-    <t>Tax code</t>
-  </si>
-  <si>
-    <t>Company name</t>
-  </si>
-  <si>
-    <t>Date Issued</t>
-  </si>
-  <si>
     <t>PADDLE.COM MARKET LIMITED</t>
   </si>
   <si>
@@ -1173,6 +1164,15 @@
   </si>
   <si>
     <t>Ng Bin Xi</t>
+  </si>
+  <si>
+    <t>Issuance Date</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Tax Code</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1246,15 +1246,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1366,9 +1357,9 @@
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{990D37D3-1AEF-48F1-B6B1-9E235F3E9E48}" name="No." dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{93BD20DC-D340-415F-95BD-856AA84B5DB4}" name="Tax code" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{4A0F1BE0-E08D-4F0A-9B13-ACDAEC967F45}" name="Company name" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{1DDF4A5F-5993-4380-8A8E-839670E35CD2}" name="Date Issued" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{93BD20DC-D340-415F-95BD-856AA84B5DB4}" name="Tax Code" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{4A0F1BE0-E08D-4F0A-9B13-ACDAEC967F45}" name="Company Name" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{1DDF4A5F-5993-4380-8A8E-839670E35CD2}" name="Issuance Date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1693,8 +1684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E872CA2-D311-4882-8395-73C9135F00E5}">
   <dimension ref="A1:D188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="D196" sqref="D196"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1711,13 +1702,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>377</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2</v>
+        <v>376</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>3</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1725,10 +1716,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D2" s="9">
         <v>44644.663900462961</v>
@@ -1739,10 +1730,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3" s="9">
         <v>44650.451620370368</v>
@@ -1753,10 +1744,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4" s="9">
         <v>44651.652280092596</v>
@@ -1767,10 +1758,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="9">
         <v>44655.463761574072</v>
@@ -1781,10 +1772,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" s="9">
         <v>44657.612118055556</v>
@@ -1795,10 +1786,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D7" s="9">
         <v>44664.681840277779</v>
@@ -1809,10 +1800,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D8" s="9">
         <v>44669.36209490741</v>
@@ -1823,10 +1814,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9" s="9">
         <v>44669.362210648149</v>
@@ -1837,10 +1828,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D10" s="9">
         <v>44678.604467592595</v>
@@ -1851,10 +1842,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" s="9">
         <v>44678.710659722223</v>
@@ -1865,10 +1856,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D12" s="9">
         <v>44679.661516203705</v>
@@ -1879,10 +1870,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D13" s="9">
         <v>44680.700636574074</v>
@@ -1893,10 +1884,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D14" s="9">
         <v>44681.366585648146</v>
@@ -1907,10 +1898,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D15" s="9">
         <v>44686.604699074072</v>
@@ -1921,10 +1912,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D16" s="9">
         <v>44687.75513888889</v>
@@ -1935,10 +1926,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D17" s="9">
         <v>44701.486921296295</v>
@@ -1949,10 +1940,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D18" s="9">
         <v>44705.769317129627</v>
@@ -1963,10 +1954,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D19" s="9">
         <v>44708.432546296295</v>
@@ -1977,10 +1968,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D20" s="9">
         <v>44708.432615740741</v>
@@ -1991,10 +1982,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D21" s="9">
         <v>44708.43273148148</v>
@@ -2005,10 +1996,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D22" s="9">
         <v>44708.432789351849</v>
@@ -2019,10 +2010,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D23" s="9">
         <v>44711.444293981483</v>
@@ -2033,10 +2024,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="9">
         <v>44713.604270833333</v>
@@ -2047,10 +2038,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D25" s="9">
         <v>44735.776203703703</v>
@@ -2061,10 +2052,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D26" s="9">
         <v>44740.869895833333</v>
@@ -2075,10 +2066,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D27" s="9">
         <v>44753.48065972222</v>
@@ -2089,10 +2080,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D28" s="9">
         <v>44762.365624999999</v>
@@ -2103,10 +2094,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D29" s="9">
         <v>44771.725405092591</v>
@@ -2117,10 +2108,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D30" s="9">
         <v>44784.704722222225</v>
@@ -2131,10 +2122,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" s="9">
         <v>44788.620995370373</v>
@@ -2145,10 +2136,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D32" s="9">
         <v>44809.470949074072</v>
@@ -2159,10 +2150,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D33" s="10">
         <v>44817.693460648145</v>
@@ -2173,10 +2164,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D34" s="10">
         <v>44817.695324074077</v>
@@ -2187,10 +2178,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D35" s="10">
         <v>44825.34851851852</v>
@@ -2201,10 +2192,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D36" s="10">
         <v>44833.349120370367</v>
@@ -2215,10 +2206,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D37" s="10">
         <v>44844.723877314813</v>
@@ -2229,10 +2220,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D38" s="10">
         <v>44852.45821759259</v>
@@ -2243,10 +2234,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D39" s="10">
         <v>44874.670243055552</v>
@@ -2257,10 +2248,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D40" s="10">
         <v>44879.431250000001</v>
@@ -2271,10 +2262,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D41" s="10">
         <v>44888.418333333335</v>
@@ -2285,10 +2276,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D42" s="10">
         <v>44888.422696759262</v>
@@ -2299,10 +2290,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D43" s="10">
         <v>44890.417650462965</v>
@@ -2313,10 +2304,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D44" s="10">
         <v>44936.708865740744</v>
@@ -2327,10 +2318,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D45" s="10">
         <v>44945.460717592592</v>
@@ -2341,10 +2332,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D46" s="10">
         <v>44945.620520833334</v>
@@ -2355,10 +2346,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D47" s="10">
         <v>44963.470289351855</v>
@@ -2369,10 +2360,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D48" s="10">
         <v>44984.373993055553</v>
@@ -2383,10 +2374,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D49" s="10">
         <v>44988.418437499997</v>
@@ -2397,10 +2388,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D50" s="10">
         <v>44998.641631944447</v>
@@ -2411,10 +2402,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D51" s="10">
         <v>45037.595069444447</v>
@@ -2425,10 +2416,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D52" s="10">
         <v>45037.595150462963</v>
@@ -2439,10 +2430,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D53" s="10">
         <v>45041.435937499999</v>
@@ -2453,10 +2444,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D54" s="10">
         <v>45043.427002314813</v>
@@ -2467,10 +2458,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D55" s="10">
         <v>45055.386134259257</v>
@@ -2481,10 +2472,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D56" s="10">
         <v>45094.519629629627</v>
@@ -2495,10 +2486,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D57" s="10">
         <v>45099.674490740741</v>
@@ -2509,10 +2500,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D58" s="10">
         <v>45099.674861111111</v>
@@ -2523,10 +2514,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D59" s="10">
         <v>45128.615578703706</v>
@@ -2537,10 +2528,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D60" s="10">
         <v>45134.454606481479</v>
@@ -2551,10 +2542,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D61" s="10">
         <v>45139.71199074074</v>
@@ -2565,10 +2556,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D62" s="10">
         <v>45141.35869212963</v>
@@ -2579,10 +2570,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D63" s="10">
         <v>45141.361435185187</v>
@@ -2593,10 +2584,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D64" s="10">
         <v>45174.41542824074</v>
@@ -2607,10 +2598,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D65" s="10">
         <v>45174.416018518517</v>
@@ -2621,10 +2612,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D66" s="10">
         <v>45182.543541666666</v>
@@ -2635,10 +2626,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D67" s="10">
         <v>45183.463078703702</v>
@@ -2649,10 +2640,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D68" s="10">
         <v>45186.841446759259</v>
@@ -2663,10 +2654,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D69" s="10">
         <v>45198.688506944447</v>
@@ -2677,10 +2668,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D70" s="10">
         <v>45206.727847222224</v>
@@ -2691,10 +2682,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D71" s="10">
         <v>45222.616527777776</v>
@@ -2705,10 +2696,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D72" s="10">
         <v>45223.4843287037</v>
@@ -2719,10 +2710,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D73" s="10">
         <v>45225.383229166669</v>
@@ -2733,10 +2724,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D74" s="10">
         <v>45225.383356481485</v>
@@ -2747,10 +2738,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D75" s="10">
         <v>45268.472361111111</v>
@@ -2761,10 +2752,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D76" s="10">
         <v>45275.584398148145</v>
@@ -2775,10 +2766,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D77" s="10">
         <v>45300.808275462965</v>
@@ -2789,10 +2780,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D78" s="10">
         <v>45300.814212962963</v>
@@ -2803,10 +2794,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D79" s="10">
         <v>45300.816435185188</v>
@@ -2817,10 +2808,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D80" s="10">
         <v>45308.466493055559</v>
@@ -2831,10 +2822,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D81" s="10">
         <v>45320.754502314812</v>
@@ -2845,10 +2836,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D82" s="10">
         <v>45320.754918981482</v>
@@ -2859,10 +2850,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D83" s="10">
         <v>45338.370150462964</v>
@@ -2873,10 +2864,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D84" s="10">
         <v>45338.37358796296</v>
@@ -2887,10 +2878,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D85" s="10">
         <v>45343.364687499998</v>
@@ -2901,10 +2892,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D86" s="10">
         <v>45376.47729166667</v>
@@ -2915,10 +2906,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D87" s="10">
         <v>45391.677245370367</v>
@@ -2929,10 +2920,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D88" s="10">
         <v>45395.648310185185</v>
@@ -2943,10 +2934,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D89" s="10">
         <v>45404.357418981483</v>
@@ -2957,10 +2948,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D90" s="10">
         <v>45404.358067129629</v>
@@ -2971,10 +2962,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D91" s="10">
         <v>45404.362604166665</v>
@@ -2985,10 +2976,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D92" s="10">
         <v>45404.36278935185</v>
@@ -2999,10 +2990,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D93" s="10">
         <v>45405.743576388886</v>
@@ -3013,10 +3004,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D94" s="10">
         <v>45414.337916666664</v>
@@ -3027,10 +3018,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D95" s="10">
         <v>45414.338564814818</v>
@@ -3041,10 +3032,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D96" s="10">
         <v>45419.611585648148</v>
@@ -3055,10 +3046,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D97" s="10">
         <v>45437.689259259256</v>
@@ -3069,10 +3060,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D98" s="10">
         <v>45446.469837962963</v>
@@ -3083,10 +3074,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D99" s="10">
         <v>45446.685937499999</v>
@@ -3097,10 +3088,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D100" s="10">
         <v>45448.424988425926</v>
@@ -3111,10 +3102,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D101" s="10">
         <v>45461.59107638889</v>
@@ -3125,10 +3116,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D102" s="10">
         <v>45461.592488425929</v>
@@ -3139,10 +3130,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D103" s="10">
         <v>45471.372245370374</v>
@@ -3153,10 +3144,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D104" s="10">
         <v>45478.705428240741</v>
@@ -3167,10 +3158,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D105" s="10">
         <v>45502.639861111114</v>
@@ -3181,10 +3172,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D106" s="10">
         <v>45510.760613425926</v>
@@ -3195,10 +3186,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D107" s="10">
         <v>45523.72420138889</v>
@@ -3209,10 +3200,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D108" s="10">
         <v>45539.448842592596</v>
@@ -3223,10 +3214,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D109" s="10">
         <v>45539.464212962965</v>
@@ -3237,10 +3228,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D110" s="10">
         <v>45544.608078703706</v>
@@ -3251,10 +3242,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D111" s="10">
         <v>45546.403935185182</v>
@@ -3265,10 +3256,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D112" s="10">
         <v>45551.667245370372</v>
@@ -3279,10 +3270,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D113" s="10">
         <v>45569.693969907406</v>
@@ -3293,10 +3284,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D114" s="10">
         <v>45572.344930555555</v>
@@ -3307,10 +3298,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D115" s="10">
         <v>45572.355127314811</v>
@@ -3321,10 +3312,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D116" s="10">
         <v>45574.637939814813</v>
@@ -3335,10 +3326,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D117" s="10">
         <v>45593.397893518515</v>
@@ -3349,10 +3340,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D118" s="10">
         <v>45632.667951388888</v>
@@ -3363,10 +3354,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D119" s="10">
         <v>45632.668136574073</v>
@@ -3377,10 +3368,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D120" s="10">
         <v>45632.668599537035</v>
@@ -3391,10 +3382,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D121" s="10">
         <v>45643.439131944448</v>
@@ -3405,10 +3396,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D122" s="10">
         <v>45646.598657407405</v>
@@ -3419,10 +3410,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D123" s="10">
         <v>45646.615983796299</v>
@@ -3433,10 +3424,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D124" s="10">
         <v>45649.57471064815</v>
@@ -3447,10 +3438,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D125" s="10">
         <v>45654.410914351851</v>
@@ -3461,10 +3452,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D126" s="10">
         <v>45657.423206018517</v>
@@ -3475,10 +3466,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D127" s="10">
         <v>45677.649548611109</v>
@@ -3489,10 +3480,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D128" s="10">
         <v>45677.653229166666</v>
@@ -3503,10 +3494,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D129" s="10">
         <v>45692.339259259257</v>
@@ -3517,10 +3508,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D130" s="10">
         <v>45694.400763888887</v>
@@ -3531,10 +3522,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D131" s="10">
         <v>45700.572627314818</v>
@@ -3545,10 +3536,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D132" s="10">
         <v>45714.409386574072</v>
@@ -3559,10 +3550,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D133" s="10">
         <v>45715.613356481481</v>
@@ -3573,10 +3564,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D134" s="10">
         <v>45726.464918981481</v>
@@ -3587,10 +3578,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D135" s="10">
         <v>45727.660324074073</v>
@@ -3601,10 +3592,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D136" s="10">
         <v>45735.614999999998</v>
@@ -3615,10 +3606,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D137" s="10">
         <v>45736.76834490741</v>
@@ -3629,10 +3620,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D138" s="10">
         <v>45736.768460648149</v>
@@ -3643,10 +3634,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D139" s="10">
         <v>45748.395416666666</v>
@@ -3657,10 +3648,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D140" s="10">
         <v>45748.395543981482</v>
@@ -3671,10 +3662,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D141" s="10">
         <v>45748.397175925929</v>
@@ -3685,10 +3676,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D142" s="10">
         <v>45748.397407407407</v>
@@ -3699,10 +3690,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D143" s="10">
         <v>45748.397997685184</v>
@@ -3713,10 +3704,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D144" s="10">
         <v>45748.398055555554</v>
@@ -3727,10 +3718,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D145" s="10">
         <v>45748.3981712963</v>
@@ -3741,10 +3732,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D146" s="10">
         <v>45748.398761574077</v>
@@ -3755,10 +3746,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D147" s="10">
         <v>45748.401377314818</v>
@@ -3769,10 +3760,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D148" s="10">
         <v>45748.401909722219</v>
@@ -3783,10 +3774,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D149" s="10">
         <v>45748.403310185182</v>
@@ -3797,10 +3788,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D150" s="10">
         <v>45756.660960648151</v>
@@ -3811,10 +3802,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D151" s="10">
         <v>45756.691828703704</v>
@@ -3825,10 +3816,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D152" s="10">
         <v>45761.694965277777</v>
@@ -3839,10 +3830,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D153" s="10">
         <v>45761.696018518516</v>
@@ -3853,10 +3844,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D154" s="10">
         <v>45763.702719907407</v>
@@ -3867,10 +3858,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D155" s="10">
         <v>45773.595335648148</v>
@@ -3881,10 +3872,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D156" s="10">
         <v>45785.474479166667</v>
@@ -3895,10 +3886,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D157" s="10">
         <v>45785.79824074074</v>
@@ -3909,10 +3900,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D158" s="10">
         <v>45790.453587962962</v>
@@ -3923,10 +3914,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D159" s="10">
         <v>45793.710324074076</v>
@@ -3937,10 +3928,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D160" s="10">
         <v>45825.467164351852</v>
@@ -3951,10 +3942,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D161" s="10">
         <v>45826.451307870368</v>
@@ -3965,10 +3956,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D162" s="10">
         <v>45831.769988425927</v>
@@ -3979,10 +3970,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D163" s="10">
         <v>45835.435243055559</v>
@@ -3993,10 +3984,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D164" s="10">
         <v>45842.713796296295</v>
@@ -4007,10 +3998,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D165" s="10">
         <v>45869.941840277781</v>
@@ -4021,10 +4012,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D166" s="10">
         <v>45869.941840277781</v>
@@ -4035,10 +4026,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D167" s="10">
         <v>45870.388703703706</v>
@@ -4049,10 +4040,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D168" s="10">
         <v>45873.372731481482</v>
@@ -4063,10 +4054,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D169" s="10">
         <v>45873.372731481482</v>
@@ -4077,10 +4068,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D170" s="10">
         <v>45874.70884259259</v>
@@ -4091,10 +4082,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D171" s="10">
         <v>45874.70890046296</v>
@@ -4105,10 +4096,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D172" s="10">
         <v>45890.591145833336</v>
@@ -4119,10 +4110,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D173" s="10">
         <v>45890.591215277775</v>
@@ -4133,10 +4124,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D174" s="10">
         <v>45890.59134259259</v>
@@ -4147,10 +4138,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D175" s="10">
         <v>45890.591412037036</v>
@@ -4161,10 +4152,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D176" s="10">
         <v>45890.591481481482</v>
@@ -4175,10 +4166,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D177" s="10">
         <v>45895.704467592594</v>
@@ -4189,10 +4180,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D178" s="10">
         <v>45917.46125</v>
@@ -4203,10 +4194,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D179" s="10">
         <v>45917.461284722223</v>
@@ -4217,10 +4208,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D180" s="10">
         <v>45917.461284722223</v>
@@ -4231,10 +4222,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D181" s="10">
         <v>45917.461342592593</v>
@@ -4244,13 +4235,13 @@
       <c r="A182" s="4">
         <v>181</v>
       </c>
-      <c r="B182" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="C182" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="D182" s="13">
+      <c r="B182" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D182" s="10">
         <v>45926.657743055555</v>
       </c>
     </row>
@@ -4258,13 +4249,13 @@
       <c r="A183" s="4">
         <v>182</v>
       </c>
-      <c r="B183" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="C183" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="D183" s="13">
+      <c r="B183" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D183" s="10">
         <v>45926.657754629632</v>
       </c>
     </row>
@@ -4272,13 +4263,13 @@
       <c r="A184" s="4">
         <v>183</v>
       </c>
-      <c r="B184" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="C184" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="D184" s="13">
+      <c r="B184" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D184" s="10">
         <v>45926.657812500001</v>
       </c>
     </row>
@@ -4286,13 +4277,13 @@
       <c r="A185" s="4">
         <v>184</v>
       </c>
-      <c r="B185" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="C185" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="D185" s="13">
+      <c r="B185" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D185" s="10">
         <v>45926.657824074071</v>
       </c>
     </row>
@@ -4300,13 +4291,13 @@
       <c r="A186" s="4">
         <v>185</v>
       </c>
-      <c r="B186" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="C186" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="D186" s="13">
+      <c r="B186" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D186" s="10">
         <v>45926.657881944448</v>
       </c>
     </row>
@@ -4314,13 +4305,13 @@
       <c r="A187" s="4">
         <v>186</v>
       </c>
-      <c r="B187" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="C187" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="D187" s="13">
+      <c r="B187" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D187" s="10">
         <v>45926.657881944448</v>
       </c>
     </row>
@@ -4328,13 +4319,13 @@
       <c r="A188" s="4">
         <v>187</v>
       </c>
-      <c r="B188" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="C188" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="D188" s="13">
+      <c r="B188" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D188" s="10">
         <v>45926.657951388886</v>
       </c>
     </row>

--- a/FCT/registered_contractors.xlsx
+++ b/FCT/registered_contractors.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Documents\GitHub\knowledge-base\FCT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Documents\GitHub\knowledge-base\fct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECE61E3-A8D7-42BD-9B5C-5E7D866154C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C232E0D8-5E12-4BCE-AAA1-0C640B1B224F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{1D4E7621-41A5-45D4-AA1B-F1E68A352389}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1D4E7621-41A5-45D4-AA1B-F1E68A352389}"/>
   </bookViews>
   <sheets>
     <sheet name="Updated 2025.09.28" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Updated 2025.09.28'!$A$1:$D$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Updated 2025.09.28'!$A$1:$D$195</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="392">
   <si>
     <t>No.</t>
   </si>
@@ -1173,6 +1173,48 @@
   </si>
   <si>
     <t>Tax Code</t>
+  </si>
+  <si>
+    <t>9000002324</t>
+  </si>
+  <si>
+    <t>Insight Media Group</t>
+  </si>
+  <si>
+    <t>9000002331</t>
+  </si>
+  <si>
+    <t>Drama Rewards Co Limited</t>
+  </si>
+  <si>
+    <t>9000002349</t>
+  </si>
+  <si>
+    <t>YOUAPP PTE. LTD.</t>
+  </si>
+  <si>
+    <t>9000002363</t>
+  </si>
+  <si>
+    <t>HB STORE</t>
+  </si>
+  <si>
+    <t>9000002405</t>
+  </si>
+  <si>
+    <t>Earnreels Co Limited</t>
+  </si>
+  <si>
+    <t>9000002437</t>
+  </si>
+  <si>
+    <t>TRUESIGHT PTE.LTD</t>
+  </si>
+  <si>
+    <t>9000003014</t>
+  </si>
+  <si>
+    <t>JUPITER EXPRESS CO., LTD.</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1246,6 +1288,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1350,8 +1401,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C244F439-D8DA-4ACC-A74C-C3C4B67D414B}" name="Reg_Contractor" displayName="Reg_Contractor" ref="A1:D188" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D188" xr:uid="{1E872CA2-D311-4882-8395-73C9135F00E5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C244F439-D8DA-4ACC-A74C-C3C4B67D414B}" name="Reg_Contractor" displayName="Reg_Contractor" ref="A1:D195" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D195" xr:uid="{1E872CA2-D311-4882-8395-73C9135F00E5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D181">
     <sortCondition descending="1" ref="A1:A181"/>
   </sortState>
@@ -1682,22 +1733,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E872CA2-D311-4882-8395-73C9135F00E5}">
-  <dimension ref="A1:D188"/>
+  <dimension ref="A1:D195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4327,6 +4378,104 @@
       </c>
       <c r="D188" s="10">
         <v>45926.657951388886</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="4">
+        <v>188</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="C189" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="D189" s="13">
+        <v>45950.741319444445</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="4">
+        <v>189</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C190" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="D190" s="13">
+        <v>45950.746203703704</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="4">
+        <v>190</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="D191" s="13">
+        <v>45950.746678240743</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="4">
+        <v>191</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="D192" s="13">
+        <v>45951.447974537034</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="4">
+        <v>192</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="D193" s="13">
+        <v>45952.765324074076</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="4">
+        <v>193</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C194" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="D194" s="13">
+        <v>45953.525393518517</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="4">
+        <v>194</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="C195" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="D195" s="13">
+        <v>45959.594212962962</v>
       </c>
     </row>
   </sheetData>
